--- a/webcentral/doc/01_data/02_tool_over/2024_11_13_tools_new_logos.xlsx
+++ b/webcentral/doc/01_data/02_tool_over/2024_11_13_tools_new_logos.xlsx
@@ -2183,1024 +2183,1024 @@
     <t xml:space="preserve">Dr. Thomas Blomberg, Blocon; Prof. Johan Claesson, Abt. für Bauphysik, Chalmers Universität, Schweden; Dr. Per Eskilson, Abt. für mathematische Physik, Universität Lund, Schweden; Prof. Göran Hellström, Abt. für mathematische Physik, Universität Lund, Schweden; Dr. Burkhard Sanner, Deutschland</t>
   </si>
   <si>
+    <t xml:space="preserve">Akademische Einrichtungen erhalten 50% Rabatt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eed_logo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RKW-Digitalisierungs-Cockpit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://app.digitalisierungs-cockpit.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Cockpit soll eine erste Orientierungshilfe zum Thema Digitalisierung im Unternehmen anbieten. Es besteht aus einer beständig wachsenden Sammlung von Unternehmensbeispielen aus unterschiedlichen Branchen mit konkreten Anhaltspunkten und Denkanstößen für eine Digitalisierungsstrategie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RKW Rationalisierungs- und Innovationszentrum der Deutschen Wirtschaft e. V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitalisierungsCockpit.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iee.fraunhofer.de/de/geschaeftsfelder/digitales-portfoliomanagement/energyconnect.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect ist ein modernes Echtzeit-Leitsystem, das verschiedene dezentrale Energieanlagen zusammenfasst, steuert und überwacht. Es kann als das virtuelle Kraftwerk beschrieben werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring;;Steuerung;;Visualisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPC XML-DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyConnect.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimVicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sim-vicus.de/ , https://github.com/ghorwin/SIM-VICUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIM-VICUS ist eine 3D-Modellierungsumgebung für Gebäude- und Stadtteilnetze und eine innovative dynamische Simulationsmaschine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL-3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA ICE, Modelica, EnergyPlus, TRNSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simvicus.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloneMAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fein-aachen.org/projects/clonemap/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloneMAP (cloud-native Multi-Agent Plattform) ist eine Multi-Agenten Plattform, welche für die Ausführung in einem Kubernetes-Cluster entwickelt wurde. Das Ziel dieses Projekts ist es, die Vorteile von Cloud-Computing und einem verteilten Programmierparadigma (Multi-Agenten Systeme) zu kombinieren. cloneMAP ist in der Programmiersprache Go geschrieben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute for Automation of Complex Power Systems, EONERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache License 2.0, MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1495C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clonemap_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoval Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hoval.de/de_DE/Heiztechnik/Regelung/Leittechnik-TopTronic-supervisor/TopTronic-supervisor/HovalSupervisor-cloud/p/B_hs-cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HovalSupervisor ist ein Online-Leitsystem zur Visualisierung und Betreuung von Energieanlagen und -systemen via Browser für gewerbliche Anwendungen (u. a. Wohnbau, Hotellerie), sowie Fernwärmenetze. Verschiedene Informationen wie Fehlermeldungen können visualisiert werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoval GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ETW015A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hova.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.equa.se/de/ida-ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDA Indoor Climate and Energy (IDA-ICE) ist eine Software zur Simulation der Gebäudeleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUA Simulation AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ida-ICE-logo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ehdo.eonerc.rwth-aachen.de/, https://github.com/RWTH-EBC/EHDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO (Energy hub design optimization) ist ein Webtool zur Unterstützung des Planungsprozesses von komplexen Energieversorgungssystemen. EHDO unterstützt die Planung zukünftiger Energieversorgungssysteme und die Abschätzung des Potenzials von erneuerbaren Energien und zukünftigen Energieträgern wie Wasserstoff. Eine breite Palette innovativer Technologien wie Brennstoffzellen, Elektrolyseure, Wasserstoffspeicher, Photovoltaik- und Windkraftanlagen sowie Biomasse- und Waste-to-Energy-Technologien können in dem Tool berücksichtigt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EHDO.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.python.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python ist eine universelle, üblicherweise interpretierte, höhere Programmiersprache.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Software Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ab Python 3.8.6 wird Python unter der PSF-Lizenzvereinbarung und der Zero-Clause BSD-Lizenz lizenziert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einige Software, die in Python integriert ist, unterliegt anderen Lizenzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matlab, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1024A;;03EN1038;;03EN1074A;;03EN3017;;03EN3026C;;03EN3053A;;03EN3054A;;03EN6003D;;03ET1522C;;03ET1595C;;03ET1612F;;03ET1641B;;03SBE0006A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://plotly.com/javascript/ , https://github.com/plotly/plotly.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly.js ist eine Bibliothek für JavaScript-Anwendungen, die Graphen und Diagramme verwenden. Es handelt sich um eine Datenvisualisierungsbibliothek, die auf D3 JS und Stack dot GL aufbaut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eine Javascript-Bibliothek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details siehe https://github.com/plotly/plotly.js?tab=License-1-ov-file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chart.js, Highcharts, Google Charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotlyjs.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rhino3d.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinoceros 3D ist eine Software für die computergestützte 3D-Modellierung und das rechnergestützte Konstruieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhino selbst ist in C++ geschrieben. Es unterstützt jedoch auch verschiedene Skriptsprachen zur Automatisierung und Anpassung, einschließlich RhinoScript (basierend auf VBScript), Python und RhinoCommon (eine .NET-Bibliothek).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RhinoCommon, RhinoScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Vollversion kann 90 Tage lang getestet werden. Nach 90 Tagen funktionieren das Speichern und die Plugins nicht mehr, es sei denn, es wird ein Lizenzschlüssel erworben. Eine Studentenversion ist ebenfalls verfügbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhino_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimescaleDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.timescale.com/, https://github.com/timescale/timescaledb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimescaleDB ist eine Open-Source-SQL-Datenbank für Zeitreihen, die PostgresSQL erweitert und für schnelle Sammlungen und komplexe Abfragen optimiert ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timescale Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details siehe https://github.com/timescale/timescaledb/blob/main/LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfluxDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timescale.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comsol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.comsol.de/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMSOL Multiphysics ist eine Software zur Simulation physikalischer Vorgänge, die mittels Differentialgleichungen beschrieben werden können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comsol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1472B;;03ET1632C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenSim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/QuaSi-Software/GenSim, https://www.mdpi.com/1996-1073/16/17/6115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenSim ist ein Werkzeug zur Simulation der Strom- und Wärmebedarfs von Gebäuden, mit einem Fokus auf den frühen Entwurfsphasen. Es kann hochauflösende zeitliche Daten verarbeiten und vereinfacht geometrische Modelle für effiziente Simulationen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maile Consulting; siz energieplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby, VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignBuilder, IDA ICE, TRNSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gensim.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIVT Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ims.tu-darmstadt.de/forschung_ims/virtuelle_simulation_und_reale_erprobung/swivt_controller_/index.de.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der SWIVT-Controller ist ein umfassendes Werkzeug, das in den SWIVT-Projekten zur Optimierung der Auslegung und des Betriebs des Energiesystems des SWIFT-Quartiers eingesetzt wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Mechatronische Systeme im Maschinenbau, Technische Universität Darmstadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Model Canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://canvanizer.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Business Model Canvas (BMC) dient zur Visualisierung von Geschäftsmodellen und soll dabei helfen, innovative Geschäftsmodelle zu entwickeln oder bestehende Geschäftsmodelle zu verändern. Im Mittelpunkt steht dabei die Geschäftslogik eines Unternehmens oder Angebots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canvanizer (digital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">businessModelCanvas.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polysun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.velasolaris.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polysun ist eine Software, mit der sich solarthermische, photovoltaische und geothermische Anlagen effektiv simulieren lassen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vela Solaris AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polysun.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignBuilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://designbuilder.co.uk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignBuilder für Ingenieure dient u.a. zur Unterstützung bei der nachhaltigen Gebäudeplanung. Führende Dienstleistungsingenieure und Energiemodellierer verwenden DesignBuilder, um Designentscheidungen zu treffen, die Energieeffizienz, Komfort und Kosten optimieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DesignBuilder Software Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung;;Planung;;Simulation;;Steuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBLogoSquare.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://energyplus.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPlus ist ein Gebäudeenergie-Simulationsprogramm für Ingenieure und Architekten um sowohl den Energieverbrauch für Heizung, Kühlung, Lüftung, Beleuchtung sowie Plug-and-Process-Lasten und den Wasserverbrauch in Gebäuden zu modellieren und zu simulieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPlus wird vom Building Technologies Office (BTO) des US-Energieministeriums (DOE) gefördert und vom National Renewable Energy Laboratory (NREL) betreut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPlus License</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3026C;;03EN3053A;;03EN6003D;;03EN6023A;;03ET1299C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPlus_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influx DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.influxdata.com/, https://github.com/influxdata/influxdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfluxDB ist ein Open Source Datenbankmanagementsystem, speziell für Zeitreihen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfluxData Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache Arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für den open-source Teil: Apache-2.0, MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kostenlose Version verfügbar, kostenpflichtige Versionen für professionelle Anwendungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3026C;;03ET1632C;;03EWR020E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influxdb_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS-DYNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dynamore.eu/de/produkte/dyna/einfuehrung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS-DYNA ist ein Simulationsprogramm, das mit Hilfe der Finite-Elemente-Methode arbeitet und  auf Basis des Vorgängerprogramms DYNA3D entwickelt wurde. Insbesondere nicht-lineare und hochdynamische Problemstellungen können mit diesem Programm bearbeitet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livermore Software Technology Corporation (LSTC) (Ansys Inc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortran, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPI (Message Passing Interface)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS-DYNA ist aus dem 1976 entwickelten 3D-FEA-Programm DYNA3D hervorgegangen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls_dyna_logo.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandaspipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pandapipes.org/, https://github.com/e2nIEE/pandapipes/tree/develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandapipes ist ein einfach zu bedienendes Netzberechnungsprogramm, das auf die Automatisierung der Analyse von Fernwärme- und Gassystemen ausgerichtet ist. Es nutzt die Datenanalysebibliothek pandas und ist auch eng mit dem Stromnetzberechnungsprogramm pandapower verwandt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE; Fachgebiet Energiemanagement und Betrieb elektrischer Netze, Universität Kassel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details zur Lizenz: https://pandapipes.readthedocs.io/en/latest/about/license.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandaspipes.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.acceptmission.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept Mission ist eine Ideen- und Innovationsmanagement-Software zum Sammeln von Ideen, Auswählen von Ideen, Ausführen von Innovationsprojekten und Berichten über den Fortschritt. AcceptMission ist eine cloudbasierte Lösung, die den gesamten Lebenszyklus von Innovationsprojekten auf einer einheitlichen Plattform verwalten soll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software, cloudbasiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceptMission.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nPro Energy Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www npro.energy, https://doi.org/10.1016/j.energy.2022.126575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nPro ist eine Software für die frühe Planungsphase von Quartieren und Wärmenetzen. Es umfasst die technische Auslegung von Quartierslösungen (Wärmenetze, LowEx-Netze, kalte Nahwärme) und die Berechnung der Wirtschaftlichkeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nPro Energy GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numpy, networkx, pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kostenfrei;;Kostenpflichtig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npro_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mysql.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL ist ein Open-Source-Relationales Datenbanksystem, das strukturierte Daten in Tabellen speichert und durch SQL abgefragt und verwaltet wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, C, C++, sonstige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPL, sonstige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mysql.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CasADi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.casadi.org/, https://github.com/casadi/casadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CasADi ist ein Open-Source-Softwaretool für numerische Optimierung im Allgemeinen und optimale Steuerung (d.h. Optimierung mit Differentialgleichungen) im Besonderen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joris Gillis; Joel Andersson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung;;Planung;;Regelung;;Steuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, C, Python, SWIG, MATLAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casadi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.x3dom.org/, https://github.com/x3dom/x3dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3DOM ist ein quelloffenes JavaScript-Framework zur Erstellung deklarativer 3D-Szenen in Webseiten. Kurz gesagt bedeutet das deklarative 3D-Konzept, dass man eine interaktive 3D-Szene mit Hilfe einer strukturierten, textuellen Darstellung erstellen und anzeigen kann, anstatt Code zu schreiben - und zwar ohne ein Plugin in den Browsern. Im Fall von X3DOM ist diese textuelle Darstellung Teil eines HTML-Dokuments, das eine Webseite darstellt. Auf diese Weise wird der 3D-Inhalt zu einem Bürger erster Klasse innerhalb der Webseite, genau wie Text, Links, Bilder oder Filme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Graphische Datenverarbeitung IGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring;;Planung;;Visualisierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML, JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual lizenziert unter der MIT- und GPL-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3dom.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influx Telegraf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.influxdata.com/time-series-platform/telegraf/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telegraf ist ein Plugin-basierter Server Agent , welcher beim Sammeln und Versenden von Softwaremetriken unterstützt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">influxdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Erstellung der Metriken besteht aus einem 4 stufigen Prozess. Dieser unterteilt sich in Input, Verarbeitung, Aggregation und Ausgabe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prometheus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telegraf_Logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.djangoproject.com/, https://github.com/django/django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django ist ein in Python geschriebenes, quelloffenes Webframework,  das schnelle Entwicklung und ein sauberes, pragmatisches Design fördert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Software Foundation and individual contributors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback;;Monitoring;;Optimierung;;Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endnutzer:innen;;Informatiker:innen/Software-Entwickler:innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommandozeile;;webbasierte Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL, MySQL, SQLite, Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betrieblich;;rechtlich;;technisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD-3-Clause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3054A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">django.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grafana.com/, https://github.com/grafana/grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafana ist eine plattformübergreifende Open-Source-Anwendung zur grafischen Darstellung von Daten aus verschiedenen Datenquellen wie z. B. InfluxDB, MySQL, PostgreSQL, Prometheus und Graphite. Die erfassten Rohdaten lassen sich anschließend in verschiedenen Anzeigeformen ausgeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafana Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular, React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfluxDB, MySQL, PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für den open-source Teil: GNU AGPL-3.0-only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1074A;;03EN3026C;;03ET1632C;;03EWR020E;;03SBE0006A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafana_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnerCalC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ingefo.de/Werkzeuge/EnerCalC/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnerCalC bietet die Möglichkeit mit relativ geringem Eingabeaufwand den Energiebedarf für ein Gebäude in Anlehnung an die DIN V 18599 differenziert zu bilanzieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Gebäude-Energieforschung, Dr. Markus Lichtmeß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grafische Benutzeroberfläche (Plugin für Excel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIEC-Canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.biec-tools.iao.fraunhofer.de/elemente-digitaler-geschaeftsmodelle/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das BIEC-Canvas unterstützt anhand von Leitfragen die Ausarbeitung eines Business Modell Canvas speziell für digitale Geschäftsmodelle. Die Unterlagen können als PDF runtergeladen oder sofort online genutzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biecCanvas.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.qgis.org/de/site/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGIS ist eine freie Geoinformationssystemsoftware zum Betrachten, Bearbeiten, Erfassen und Analysieren räumlicher Daten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGIS Development Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qt, GDAL/OGR, GEOS, PROJ, PyQGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL, SQLite, Oracle, DB2, MSSQL, MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN3011C;;03EWR020E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGIS_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenGeoSys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.opengeosys.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenGeoSys (OGS) ist ein wissenschaftliches Open-Source-Projekt zur Entwicklung numerischer Methoden zur Simulation von thermo-hydro-mechanisch-chemischen (THMC) Prozessen in porösen und gebrochenen Medien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helmholtz-Zentrum für Umweltforschung GmbH (UFZ); the OpenGeoSys community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C++, Python, Cmake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETSc, Eigen, VTK, sonstige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die modifizierte BSD-Lizenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EGB0016A;;03EGB0016B;;03EGB0016C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opengeosys_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2Calc4Quartier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.b-tu.de/fg-energiewirtschaft/projekte/laufende-projekte/co2calc4quartier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2Calc4Quartier ist ein Tool, das für die Bewertung von Fernwärmekonzepten mit besonderem Fokus auf CO2-Emissionen entwickelt wurde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachgebiet Energiewirtschaft, Brandenburgische Technische Universität Cottbus-Senftenberg; r2b energy consulting GmbH; BTB Blockheizkraftwerks-, Träger- und Betreibergesellschaft mbH Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voraussichtlich 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdeaCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ideacheck.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdeaCheck soll einen professionellen, wissenschaftlich validierten Fragebogen aus der Produktidee heraus generieren. Es wird eine demographisch passende Zielgruppe für die Idee befragt. IdeaCheck erstellt ein ausgewogenes, unvoreingenommenes Ergebnis, sowie eine Bewertung der Idee, inklusive Kommentaren von Umfrageteilnehmenden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ideaCheck.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAR-CCM+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.plm.automation.siemens.com/global/de/products/simcenter/STAR-CCM.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simcenter STAR-CCM + ist eine kommerzielle, auf Computational Fluid Dynamics basierende Simulationssoftware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siemens PLM Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für die Berechnung von Strömungsproblemen wird die finite Elemente- bzw. Finite Volumen methoden verwendet. Weiterhin können probleme aus dem Bereich Viskoelastizität, Turbulenz, Rheologie, Nicht- newtonische Fluide und multi-phasen Strömungen berechnet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenFoam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starccm_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egs-plan.de/web/images/MonKey-technisches-monitoring-Kooperation-vinci-und-EGS-plan.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonKey ist  eine Analyse- und Visualisierungsplattform, die die Datenflut aus Monitoring (Mon) und Anlagenkennschlüssel (Key) mit ausgefeilten Big-Data-Methoden in leicht verständliche Informationen umwandelt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGS-plan Ingenieurgesellschaft für Energie-, Gebäude- und Solartechnik mbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monkey.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.iee.fraunhofer.de/en/business_units/analyses_and_consultancy_in_energy_economics/eq-city.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City ist ein Planungswerkzeug bzw. eine Software, die sich auf Energieversorgungskonzepte in Quartieren und Städten bezieht. Es kann genutzt werden, um transparente Investitionsentscheidungen zur Wärmeversorgung in städtischen Gebieten zu treffen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQ-City.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvestScope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iaee2021online.org/download/contribution/presentation/1237/1237_presentation_20210601_205727.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investSCOPE optimiert Transformationspfade für die Dekarbonisierung von Erzeugungsportfolios unter Berücksichtigung finanzieller Kennziffern und bestimmt, in welche Technologie zu welchem Zeitpunkt und zu welchen Kosten investiert werden sollte, um einen wirtschaftlich optimalen Pfad zur Portfolioentwicklung zu erreichen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyomo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolbox "Geschäftsmodellentwicklung im Mittelstand"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.rkw-kompetenzzentrum.de/innovation/blog/2020/toolbox-geschaeftsmodellentwicklung-im-mittelstand/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Toolbox "Geschäftsmodellentwicklung im Mittelstand" enthält eine Sammlung von Tools, die einen Geschäftsmodellentwicklungsprozess bereichern können. Zu jedem Tool gibt es eine Anleitung in PDF Format sowie eine Wordvorlage zum Anpassen und Ausdrucken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeschäftsmodellentwicklungimMittelstand.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansys Fluids Computational Fluid Dynamics (CFD) Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ansys.com/de-de/products/fluids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der ANSYS Fluids Produktfamilie für Strömungsmechanik steht Ingenieuren ein breites Portfolio technisch führender Technologien für das gesamte Anwendungsspektrum der Fluidsimulation zur Verfügung, mit denen sie den Einfluss von Fluidströmungen auch bei komplexen Wechselwirkungen zwischen verschiedenen physikalischen Einflussfaktoren sowie beweglichen Geometrien zuverlässig ermitteln können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansys Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openfoam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03ET1636B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansys-fluids_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.knime.com, https://github.com/knime/knime-core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNIME, der „Konstanz Information Miner“, ist eine freie Software für die interaktive Datenanalyse. KNIME ermöglicht durch das modulare Pipelining-Konzept die Integration zahlreicher Verfahren des maschinellen Lernens und des Data-Mining.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java, JavaScript, Python, HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scikit-learn, TensorFlow, Weka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL, PostgreSQL, Oracle, Hadoop, Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kostenlose Version verfügbar, kostenpflichtige Versionen für professionelle Anwendungen. Für den Open-Source-Teil: Jedes Modul wird unter seiner eigenen Lizenz veröffentlicht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN6003D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knime_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ier.uni-stuttgart.de/forschung/modelle/E2M2/, https://openenergy-platform.org/factsheets/models/95/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2M2 (European Electricity Market Model) ist ein grundlegendes Strommarktmodell, das mit dem Ziel entwickelt wurde, die Systemkosten auf dem europäischen Strommarkt zu minimieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut für Energiewirtschaft und rationelle Energieanwendung (IER), Universität Stuttgart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MageAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mage.ai/, https://github.com/mage-ai/mage-ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage ist ein Open-Source-Datenpipeline-Tool zur Transformation und Integration von Daten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mage Technologies, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grafische Benutzeroberfläche;;Kommandozeile;;webbasierte Benutzeroberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python, SQL, R, PySpark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL, MongoDB, PostgreSQL, MSSQL, sonstige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digitale Anwendung;;Framework/Bibliothek;;Plattform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knime,  Apache NiFi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03EN1037D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mageai.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyMap Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.energymap.berlin/, https://www.lup-umwelt.de/energymap-berlin/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyMap Berlin ist eine Online-Plattform zur Erstellung eines gebäudespezifischen digitalen Wärmekatasters für den Gebäudebestand des Landes Berlin. Das gebäudescharfe Wärmekataster ist ein Werkzeug der kommunalen Wärmeplanung. Es erfasst alle beheizten Gebäude in den einzelnen Kommunen des Landkreises und beinhaltet zu jedem Gebäude Informationen zu Nutzung, Baustruktur und Wärmebedarf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2online gemeinnützige Beratungsgesellschaft mbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energymapberlin.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO-HANDlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://innosued.de/energie/geothermie-software-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Software GEO-HANDlight dient zur einfachen und schnellen Auslegung von Erdwärmesonden und Erdwärmesondenfeldern. Das Programm erlaubt es, einzelne Erdwärmesonden bis hin zu ganzen Sondenfeldern in verschiedenen Anordnungen zu kalkulieren und die relevanten Auslegungsgrenzen zu überprüfen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochschule Biberach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endnutzer:innen;;Baufachleute;;Ingenieur:innen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numpy, Matplotlib, PySide2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonstige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EED, EWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDI 4640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dlubal.com/de/produkte/fem-statik-software-rfem/was-ist-rfem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFEM ist eine 3D-FEM-Software zur statischen Berechnung und Bemessung von Stahl-, Stahlbeton-, Holz-, Glas- und Membran-Strukturen, für den Anlagen- und Maschinenbau sowie für dynamische Analysen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFEM_logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therakles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bauklimatik-dresden.de/therakles/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Simulationsprogramm THERAKLES berechnet das dynamische thermische oder hygrothermische Verhalten von Räumen und Gebäuden. Es ist ein Berechnungswerkzeug für planende Ingenieure und Architekten im Bereich der Bauphysik, des Bauklimas und der technischen Gebäudeausrüstung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Andreas Nicolai, Dr.-Ing. Peggy Freudenberg und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THERAKLES ist als kostenfreie und kommerzielle Professional-Version verfügbar. Die freie Version ist hinsichtlich der Verwendung in kommerziellen Projekten nicht eingeschränkt. Details siehe https://www.bauklimatik-dresden.de/therakles/bestellen.php?aLa=de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therakles.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEFLOW (Finite Element subsurface FLOW System) is a computer program for the simulation of groundwater flow, mass transfer and heat transfer in porous and fractured media.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service;;Research/Teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring;;Optimization;;Planning;;Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation;;Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical user interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital application;;digital tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
     <t xml:space="preserve">ongoing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akademische Einrichtungen erhalten 50% Rabatt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eed_logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RKW-Digitalisierungs-Cockpit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.digitalisierungs-cockpit.de/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Cockpit soll eine erste Orientierungshilfe zum Thema Digitalisierung im Unternehmen anbieten. Es besteht aus einer beständig wachsenden Sammlung von Unternehmensbeispielen aus unterschiedlichen Branchen mit konkreten Anhaltspunkten und Denkanstößen für eine Digitalisierungsstrategie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RKW Rationalisierungs- und Innovationszentrum der Deutschen Wirtschaft e. V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digitalisierungsCockpit.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iee.fraunhofer.de/de/geschaeftsfelder/digitales-portfoliomanagement/energyconnect.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect ist ein modernes Echtzeit-Leitsystem, das verschiedene dezentrale Energieanlagen zusammenfasst, steuert und überwacht. Es kann als das virtuelle Kraftwerk beschrieben werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring;;Steuerung;;Visualisierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPC XML-DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyConnect.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimVicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sim-vicus.de/ , https://github.com/ghorwin/SIM-VICUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIM-VICUS ist eine 3D-Modellierungsumgebung für Gebäude- und Stadtteilnetze und eine innovative dynamische Simulationsmaschine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL-3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA ICE, Modelica, EnergyPlus, TRNSYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simvicus.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloneMAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fein-aachen.org/projects/clonemap/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloneMAP (cloud-native Multi-Agent Plattform) ist eine Multi-Agenten Plattform, welche für die Ausführung in einem Kubernetes-Cluster entwickelt wurde. Das Ziel dieses Projekts ist es, die Vorteile von Cloud-Computing und einem verteilten Programmierparadigma (Multi-Agenten Systeme) zu kombinieren. cloneMAP ist in der Programmiersprache Go geschrieben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute for Automation of Complex Power Systems, EONERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache License 2.0, MIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1495C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clonemap_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoval Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hoval.de/de_DE/Heiztechnik/Regelung/Leittechnik-TopTronic-supervisor/TopTronic-supervisor/HovalSupervisor-cloud/p/B_hs-cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HovalSupervisor ist ein Online-Leitsystem zur Visualisierung und Betreuung von Energieanlagen und -systemen via Browser für gewerbliche Anwendungen (u. a. Wohnbau, Hotellerie), sowie Fernwärmenetze. Verschiedene Informationen wie Fehlermeldungen können visualisiert werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoval GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ETW015A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hova.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA-ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.equa.se/de/ida-ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA Indoor Climate and Energy (IDA-ICE) ist eine Software zur Simulation der Gebäudeleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQUA Simulation AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ida-ICE-logo.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ehdo.eonerc.rwth-aachen.de/, https://github.com/RWTH-EBC/EHDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO (Energy hub design optimization) ist ein Webtool zur Unterstützung des Planungsprozesses von komplexen Energieversorgungssystemen. EHDO unterstützt die Planung zukünftiger Energieversorgungssysteme und die Abschätzung des Potenzials von erneuerbaren Energien und zukünftigen Energieträgern wie Wasserstoff. Eine breite Palette innovativer Technologien wie Brennstoffzellen, Elektrolyseure, Wasserstoffspeicher, Photovoltaik- und Windkraftanlagen sowie Biomasse- und Waste-to-Energy-Technologien können in dem Tool berücksichtigt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHDO.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.python.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python ist eine universelle, üblicherweise interpretierte, höhere Programmiersprache.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python Software Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ab Python 3.8.6 wird Python unter der PSF-Lizenzvereinbarung und der Zero-Clause BSD-Lizenz lizenziert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einige Software, die in Python integriert ist, unterliegt anderen Lizenzen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matlab, R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1024A;;03EN1038;;03EN1074A;;03EN3017;;03EN3026C;;03EN3053A;;03EN3054A;;03EN6003D;;03ET1522C;;03ET1595C;;03ET1612F;;03ET1641B;;03SBE0006A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">python_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plotly js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://plotly.com/javascript/ , https://github.com/plotly/plotly.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plotly.js ist eine Bibliothek für JavaScript-Anwendungen, die Graphen und Diagramme verwenden. Es handelt sich um eine Datenvisualisierungsbibliothek, die auf D3 JS und Stack dot GL aufbaut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plotly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eine Javascript-Bibliothek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details siehe https://github.com/plotly/plotly.js?tab=License-1-ov-file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chart.js, Highcharts, Google Charts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plotlyjs.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rhino3d.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinoceros 3D ist eine Software für die computergestützte 3D-Modellierung und das rechnergestützte Konstruieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhino selbst ist in C++ geschrieben. Es unterstützt jedoch auch verschiedene Skriptsprachen zur Automatisierung und Anpassung, einschließlich RhinoScript (basierend auf VBScript), Python und RhinoCommon (eine .NET-Bibliothek).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RhinoCommon, RhinoScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Vollversion kann 90 Tage lang getestet werden. Nach 90 Tagen funktionieren das Speichern und die Plugins nicht mehr, es sei denn, es wird ein Lizenzschlüssel erworben. Eine Studentenversion ist ebenfalls verfügbar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhino_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimescaleDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.timescale.com/, https://github.com/timescale/timescaledb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimescaleDB ist eine Open-Source-SQL-Datenbank für Zeitreihen, die PostgresSQL erweitert und für schnelle Sammlungen und komplexe Abfragen optimiert ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timescale Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details siehe https://github.com/timescale/timescaledb/blob/main/LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfluxDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timescale.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comsol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.comsol.de/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMSOL Multiphysics ist eine Software zur Simulation physikalischer Vorgänge, die mittels Differentialgleichungen beschrieben werden können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comsol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1472B;;03ET1632C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenSim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/QuaSi-Software/GenSim, https://www.mdpi.com/1996-1073/16/17/6115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GenSim ist ein Werkzeug zur Simulation der Strom- und Wärmebedarfs von Gebäuden, mit einem Fokus auf den frühen Entwurfsphasen. Es kann hochauflösende zeitliche Daten verarbeiten und vereinfacht geometrische Modelle für effiziente Simulationen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maile Consulting; siz energieplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruby, VBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignBuilder, IDA ICE, TRNSYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gensim.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWIVT Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ims.tu-darmstadt.de/forschung_ims/virtuelle_simulation_und_reale_erprobung/swivt_controller_/index.de.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der SWIVT-Controller ist ein umfassendes Werkzeug, das in den SWIVT-Projekten zur Optimierung der Auslegung und des Betriebs des Energiesystems des SWIFT-Quartiers eingesetzt wird.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Mechatronische Systeme im Maschinenbau, Technische Universität Darmstadt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Model Canvas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://canvanizer.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Business Model Canvas (BMC) dient zur Visualisierung von Geschäftsmodellen und soll dabei helfen, innovative Geschäftsmodelle zu entwickeln oder bestehende Geschäftsmodelle zu verändern. Im Mittelpunkt steht dabei die Geschäftslogik eines Unternehmens oder Angebots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canvanizer (digital)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">businessModelCanvas.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polysun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.velasolaris.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polysun ist eine Software, mit der sich solarthermische, photovoltaische und geothermische Anlagen effektiv simulieren lassen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vela Solaris AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polysun.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignBuilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://designbuilder.co.uk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignBuilder für Ingenieure dient u.a. zur Unterstützung bei der nachhaltigen Gebäudeplanung. Führende Dienstleistungsingenieure und Energiemodellierer verwenden DesignBuilder, um Designentscheidungen zu treffen, die Energieeffizienz, Komfort und Kosten optimieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DesignBuilder Software Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung;;Planung;;Simulation;;Steuerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBLogoSquare.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPlus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://energyplus.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPlus ist ein Gebäudeenergie-Simulationsprogramm für Ingenieure und Architekten um sowohl den Energieverbrauch für Heizung, Kühlung, Lüftung, Beleuchtung sowie Plug-and-Process-Lasten und den Wasserverbrauch in Gebäuden zu modellieren und zu simulieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPlus wird vom Building Technologies Office (BTO) des US-Energieministeriums (DOE) gefördert und vom National Renewable Energy Laboratory (NREL) betreut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPlus License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3026C;;03EN3053A;;03EN6003D;;03EN6023A;;03ET1299C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPlus_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influx DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.influxdata.com/, https://github.com/influxdata/influxdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfluxDB ist ein Open Source Datenbankmanagementsystem, speziell für Zeitreihen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfluxData Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apache Arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für den open-source Teil: Apache-2.0, MIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kostenlose Version verfügbar, kostenpflichtige Versionen für professionelle Anwendungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3026C;;03ET1632C;;03EWR020E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influxdb_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS-DYNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dynamore.eu/de/produkte/dyna/einfuehrung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS-DYNA ist ein Simulationsprogramm, das mit Hilfe der Finite-Elemente-Methode arbeitet und  auf Basis des Vorgängerprogramms DYNA3D entwickelt wurde. Insbesondere nicht-lineare und hochdynamische Problemstellungen können mit diesem Programm bearbeitet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livermore Software Technology Corporation (LSTC) (Ansys Inc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortran, C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPI (Message Passing Interface)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS-DYNA ist aus dem 1976 entwickelten 3D-FEA-Programm DYNA3D hervorgegangen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls_dyna_logo.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandaspipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.pandapipes.org/, https://github.com/e2nIEE/pandapipes/tree/develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandapipes ist ein einfach zu bedienendes Netzberechnungsprogramm, das auf die Automatisierung der Analyse von Fernwärme- und Gassystemen ausgerichtet ist. Es nutzt die Datenanalysebibliothek pandas und ist auch eng mit dem Stromnetzberechnungsprogramm pandapower verwandt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Fraunhofer-Institut für Energiewirtschaft und Energiesystemtechnik IEE; Fachgebiet Energiemanagement und Betrieb elektrischer Netze, Universität Kassel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details zur Lizenz: https://pandapipes.readthedocs.io/en/latest/about/license.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandaspipes.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTMISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.acceptmission.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept Mission ist eine Ideen- und Innovationsmanagement-Software zum Sammeln von Ideen, Auswählen von Ideen, Ausführen von Innovationsprojekten und Berichten über den Fortschritt. AcceptMission ist eine cloudbasierte Lösung, die den gesamten Lebenszyklus von Innovationsprojekten auf einer einheitlichen Plattform verwalten soll.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software, cloudbasiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceptMission.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nPro Energy Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www npro.energy, https://doi.org/10.1016/j.energy.2022.126575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nPro ist eine Software für die frühe Planungsphase von Quartieren und Wärmenetzen. Es umfasst die technische Auslegung von Quartierslösungen (Wärmenetze, LowEx-Netze, kalte Nahwärme) und die Berechnung der Wirtschaftlichkeit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nPro Energy GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numpy, networkx, pandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kostenfrei;;Kostenpflichtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">npro_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mysql.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL ist ein Open-Source-Relationales Datenbanksystem, das strukturierte Daten in Tabellen speichert und durch SQL abgefragt und verwaltet wird.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python, C, C++, sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL, sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysql.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CasADi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.casadi.org/, https://github.com/casadi/casadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CasADi ist ein Open-Source-Softwaretool für numerische Optimierung im Allgemeinen und optimale Steuerung (d.h. Optimierung mit Differentialgleichungen) im Besonderen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joris Gillis; Joel Andersson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung;;Planung;;Regelung;;Steuerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++, C, Python, SWIG, MATLAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casadi.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x3dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.x3dom.org/, https://github.com/x3dom/x3dom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X3DOM ist ein quelloffenes JavaScript-Framework zur Erstellung deklarativer 3D-Szenen in Webseiten. Kurz gesagt bedeutet das deklarative 3D-Konzept, dass man eine interaktive 3D-Szene mit Hilfe einer strukturierten, textuellen Darstellung erstellen und anzeigen kann, anstatt Code zu schreiben - und zwar ohne ein Plugin in den Browsern. Im Fall von X3DOM ist diese textuelle Darstellung Teil eines HTML-Dokuments, das eine Webseite darstellt. Auf diese Weise wird der 3D-Inhalt zu einem Bürger erster Klasse innerhalb der Webseite, genau wie Text, Links, Bilder oder Filme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraunhofer-Institut für Graphische Datenverarbeitung IGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring;;Planung;;Visualisierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML, JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dual lizenziert unter der MIT- und GPL-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x3dom.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influx Telegraf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.influxdata.com/time-series-platform/telegraf/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegraf ist ein Plugin-basierter Server Agent , welcher beim Sammeln und Versenden von Softwaremetriken unterstützt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">influxdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Erstellung der Metriken besteht aus einem 4 stufigen Prozess. Dieser unterteilt sich in Input, Verarbeitung, Aggregation und Ausgabe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prometheus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegraf_Logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.djangoproject.com/, https://github.com/django/django</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django ist ein in Python geschriebenes, quelloffenes Webframework,  das schnelle Entwicklung und ein sauberes, pragmatisches Design fördert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Django Software Foundation and individual contributors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feedback;;Monitoring;;Optimierung;;Planung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endnutzer:innen;;Informatiker:innen/Software-Entwickler:innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommandozeile;;webbasierte Benutzeroberfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostgreSQL, MySQL, SQLite, Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">betrieblich;;rechtlich;;technisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD-3-Clause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3054A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">django.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://grafana.com/, https://github.com/grafana/grafana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafana ist eine plattformübergreifende Open-Source-Anwendung zur grafischen Darstellung von Daten aus verschiedenen Datenquellen wie z. B. InfluxDB, MySQL, PostgreSQL, Prometheus und Graphite. Die erfassten Rohdaten lassen sich anschließend in verschiedenen Anzeigeformen ausgeben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafana Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angular, React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InfluxDB, MySQL, PostgreSQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für den open-source Teil: GNU AGPL-3.0-only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1074A;;03EN3026C;;03ET1632C;;03EWR020E;;03SBE0006A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grafana_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnerCalC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ingefo.de/Werkzeuge/EnerCalC/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnerCalC bietet die Möglichkeit mit relativ geringem Eingabeaufwand den Energiebedarf für ein Gebäude in Anlehnung an die DIN V 18599 differenziert zu bilanzieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Gebäude-Energieforschung, Dr. Markus Lichtmeß</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grafische Benutzeroberfläche (Plugin für Excel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIEC-Canvas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.biec-tools.iao.fraunhofer.de/elemente-digitaler-geschaeftsmodelle/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das BIEC-Canvas unterstützt anhand von Leitfragen die Ausarbeitung eines Business Modell Canvas speziell für digitale Geschäftsmodelle. Die Unterlagen können als PDF runtergeladen oder sofort online genutzt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biecCanvas.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.qgis.org/de/site/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGIS ist eine freie Geoinformationssystemsoftware zum Betrachten, Bearbeiten, Erfassen und Analysieren räumlicher Daten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGIS Development Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qt, GDAL/OGR, GEOS, PROJ, PyQGIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PostgreSQL, SQLite, Oracle, DB2, MSSQL, MySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN3011C;;03EWR020E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QGIS_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenGeoSys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.opengeosys.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenGeoSys (OGS) ist ein wissenschaftliches Open-Source-Projekt zur Entwicklung numerischer Methoden zur Simulation von thermo-hydro-mechanisch-chemischen (THMC) Prozessen in porösen und gebrochenen Medien.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmholtz-Zentrum für Umweltforschung GmbH (UFZ); the OpenGeoSys community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C++, Python, Cmake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETSc, Eigen, VTK, sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">die modifizierte BSD-Lizenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EGB0016A;;03EGB0016B;;03EGB0016C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opengeosys_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2Calc4Quartier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.b-tu.de/fg-energiewirtschaft/projekte/laufende-projekte/co2calc4quartier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2Calc4Quartier ist ein Tool, das für die Bewertung von Fernwärmekonzepten mit besonderem Fokus auf CO2-Emissionen entwickelt wurde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachgebiet Energiewirtschaft, Brandenburgische Technische Universität Cottbus-Senftenberg; r2b energy consulting GmbH; BTB Blockheizkraftwerks-, Träger- und Betreibergesellschaft mbH Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voraussichtlich 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdeaCheck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ideacheck.io/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdeaCheck soll einen professionellen, wissenschaftlich validierten Fragebogen aus der Produktidee heraus generieren. Es wird eine demographisch passende Zielgruppe für die Idee befragt. IdeaCheck erstellt ein ausgewogenes, unvoreingenommenes Ergebnis, sowie eine Bewertung der Idee, inklusive Kommentaren von Umfrageteilnehmenden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ideaCheck.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAR-CCM+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plm.automation.siemens.com/global/de/products/simcenter/STAR-CCM.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simcenter STAR-CCM + ist eine kommerzielle, auf Computational Fluid Dynamics basierende Simulationssoftware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siemens PLM Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Für die Berechnung von Strömungsproblemen wird die finite Elemente- bzw. Finite Volumen methoden verwendet. Weiterhin können probleme aus dem Bereich Viskoelastizität, Turbulenz, Rheologie, Nicht- newtonische Fluide und multi-phasen Strömungen berechnet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenFoam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">starccm_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonKey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://egs-plan.de/web/images/MonKey-technisches-monitoring-Kooperation-vinci-und-EGS-plan.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonKey ist  eine Analyse- und Visualisierungsplattform, die die Datenflut aus Monitoring (Mon) und Anlagenkennschlüssel (Key) mit ausgefeilten Big-Data-Methoden in leicht verständliche Informationen umwandelt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EGS-plan Ingenieurgesellschaft für Energie-, Gebäude- und Solartechnik mbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monkey.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.iee.fraunhofer.de/en/business_units/analyses_and_consultancy_in_energy_economics/eq-city.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City ist ein Planungswerkzeug bzw. eine Software, die sich auf Energieversorgungskonzepte in Quartieren und Städten bezieht. Es kann genutzt werden, um transparente Investitionsentscheidungen zur Wärmeversorgung in städtischen Gebieten zu treffen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQ-City.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InvestScope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iaee2021online.org/download/contribution/presentation/1237/1237_presentation_20210601_205727.pptx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">investSCOPE optimiert Transformationspfade für die Dekarbonisierung von Erzeugungsportfolios unter Berücksichtigung finanzieller Kennziffern und bestimmt, in welche Technologie zu welchem Zeitpunkt und zu welchen Kosten investiert werden sollte, um einen wirtschaftlich optimalen Pfad zur Portfolioentwicklung zu erreichen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyomo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolbox "Geschäftsmodellentwicklung im Mittelstand"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.rkw-kompetenzzentrum.de/innovation/blog/2020/toolbox-geschaeftsmodellentwicklung-im-mittelstand/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Toolbox "Geschäftsmodellentwicklung im Mittelstand" enthält eine Sammlung von Tools, die einen Geschäftsmodellentwicklungsprozess bereichern können. Zu jedem Tool gibt es eine Anleitung in PDF Format sowie eine Wordvorlage zum Anpassen und Ausdrucken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeschäftsmodellentwicklungimMittelstand.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansys Fluids Computational Fluid Dynamics (CFD) Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ansys.com/de-de/products/fluids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit der ANSYS Fluids Produktfamilie für Strömungsmechanik steht Ingenieuren ein breites Portfolio technisch führender Technologien für das gesamte Anwendungsspektrum der Fluidsimulation zur Verfügung, mit denen sie den Einfluss von Fluidströmungen auch bei komplexen Wechselwirkungen zwischen verschiedenen physikalischen Einflussfaktoren sowie beweglichen Geometrien zuverlässig ermitteln können.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansys Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openfoam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ET1636B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ansys-fluids_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.knime.com, https://github.com/knime/knime-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNIME, der „Konstanz Information Miner“, ist eine freie Software für die interaktive Datenanalyse. KNIME ermöglicht durch das modulare Pipelining-Konzept die Integration zahlreicher Verfahren des maschinellen Lernens und des Data-Mining.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java, JavaScript, Python, HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scikit-learn, TensorFlow, Weka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL, PostgreSQL, Oracle, Hadoop, Spark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kostenlose Version verfügbar, kostenpflichtige Versionen für professionelle Anwendungen. Für den Open-Source-Teil: Jedes Modul wird unter seiner eigenen Lizenz veröffentlicht.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN6003D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knime_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ier.uni-stuttgart.de/forschung/modelle/E2M2/, https://openenergy-platform.org/factsheets/models/95/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2M2 (European Electricity Market Model) ist ein grundlegendes Strommarktmodell, das mit dem Ziel entwickelt wurde, die Systemkosten auf dem europäischen Strommarkt zu minimieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut für Energiewirtschaft und rationelle Energieanwendung (IER), Universität Stuttgart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MageAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mage.ai/, https://github.com/mage-ai/mage-ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage ist ein Open-Source-Datenpipeline-Tool zur Transformation und Integration von Daten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mage Technologies, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grafische Benutzeroberfläche;;Kommandozeile;;webbasierte Benutzeroberfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Python, SQL, R, PySpark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MySQL, MongoDB, PostgreSQL, MSSQL, sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digitale Anwendung;;Framework/Bibliothek;;Plattform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knime,  Apache NiFi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03EN1037D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mageai.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyMap Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.energymap.berlin/, https://www.lup-umwelt.de/energymap-berlin/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyMap Berlin ist eine Online-Plattform zur Erstellung eines gebäudespezifischen digitalen Wärmekatasters für den Gebäudebestand des Landes Berlin. Das gebäudescharfe Wärmekataster ist ein Werkzeug der kommunalen Wärmeplanung. Es erfasst alle beheizten Gebäude in den einzelnen Kommunen des Landkreises und beinhaltet zu jedem Gebäude Informationen zu Nutzung, Baustruktur und Wärmebedarf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2online gemeinnützige Beratungsgesellschaft mbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energymapberlin.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO-HANDlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://innosued.de/energie/geothermie-software-2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Software GEO-HANDlight dient zur einfachen und schnellen Auslegung von Erdwärmesonden und Erdwärmesondenfeldern. Das Programm erlaubt es, einzelne Erdwärmesonden bis hin zu ganzen Sondenfeldern in verschiedenen Anordnungen zu kalkulieren und die relevanten Auslegungsgrenzen zu überprüfen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochschule Biberach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endnutzer:innen;;Baufachleute;;Ingenieur:innen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numpy, Matplotlib, PySide2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2024-10-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonstige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EED, EWS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDI 4640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dlubal.com/de/produkte/fem-statik-software-rfem/was-ist-rfem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFEM ist eine 3D-FEM-Software zur statischen Berechnung und Bemessung von Stahl-, Stahlbeton-, Holz-, Glas- und Membran-Strukturen, für den Anlagen- und Maschinenbau sowie für dynamische Analysen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFEM_logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therakles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bauklimatik-dresden.de/therakles/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Simulationsprogramm THERAKLES berechnet das dynamische thermische oder hygrothermische Verhalten von Räumen und Gebäuden. Es ist ein Berechnungswerkzeug für planende Ingenieure und Architekten im Bereich der Bauphysik, des Bauklimas und der technischen Gebäudeausrüstung.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Andreas Nicolai, Dr.-Ing. Peggy Freudenberg und Dipl.-Ing. Heiko Fechner von Bauklimatik Dresden Software GmbH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THERAKLES ist als kostenfreie und kommerzielle Professional-Version verfügbar. Die freie Version ist hinsichtlich der Verwendung in kommerziellen Projekten nicht eingeschränkt. Details siehe https://www.bauklimatik-dresden.de/therakles/bestellen.php?aLa=de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therakles.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEFLOW (Finite Element subsurface FLOW System) is a computer program for the simulation of groundwater flow, mass transfer and heat transfer in porous and fractured media.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service;;Research/Teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring;;Optimization;;Planning;;Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation;;Planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engineers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphical user interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital application;;digital tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component</t>
   </si>
   <si>
     <t xml:space="preserve">Chargeable</t>
@@ -4364,8 +4364,8 @@
   </sheetPr>
   <dimension ref="A1:AD129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K107" activeCellId="0" sqref="K107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P86" activeCellId="0" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9441,13 +9441,13 @@
         <v>398</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>720</v>
+        <v>42</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>43</v>
       </c>
       <c r="T80" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="W80" s="0" t="s">
         <v>550</v>
@@ -9462,24 +9462,24 @@
         <v>5</v>
       </c>
       <c r="AD80" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>724</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>725</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>270</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>83</v>
@@ -9518,27 +9518,27 @@
         <v>5</v>
       </c>
       <c r="AD81" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>729</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>730</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E82" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="F82" s="0" t="s">
         <v>731</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>732</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>127</v>
@@ -9550,7 +9550,7 @@
         <v>187</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>104</v>
@@ -9571,24 +9571,24 @@
         <v>1</v>
       </c>
       <c r="Z82" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD82" s="0" t="s">
         <v>734</v>
-      </c>
-      <c r="AA82" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD82" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>738</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>33</v>
@@ -9627,10 +9627,10 @@
         <v>132</v>
       </c>
       <c r="S83" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="V83" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="V83" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="X83" s="0" t="n">
         <v>1</v>
@@ -9642,24 +9642,24 @@
         <v>5</v>
       </c>
       <c r="AD83" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>743</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>744</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>72</v>
@@ -9674,7 +9674,7 @@
         <v>142</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>191</v>
@@ -9686,16 +9686,16 @@
         <v>61</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S84" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="W84" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="W84" s="0" t="s">
-        <v>749</v>
       </c>
       <c r="X84" s="0" t="n">
         <v>1</v>
@@ -9707,24 +9707,24 @@
         <v>5</v>
       </c>
       <c r="AD84" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>752</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>753</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>486</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>541</v>
@@ -9754,7 +9754,7 @@
         <v>43</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X85" s="0" t="n">
         <v>1</v>
@@ -9766,24 +9766,24 @@
         <v>5</v>
       </c>
       <c r="AD85" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>758</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>759</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>141</v>
@@ -9819,24 +9819,24 @@
         <v>1</v>
       </c>
       <c r="Z86" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD86" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="AA86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD86" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>764</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>765</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>33</v>
@@ -9869,7 +9869,7 @@
         <v>174</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>76</v>
@@ -9887,7 +9887,7 @@
         <v>5</v>
       </c>
       <c r="AD87" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9895,16 +9895,16 @@
         <v>116</v>
       </c>
       <c r="B88" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>768</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>769</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>72</v>
@@ -9937,16 +9937,16 @@
         <v>76</v>
       </c>
       <c r="S88" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="T88" s="0" t="s">
         <v>771</v>
       </c>
-      <c r="T88" s="0" t="s">
+      <c r="V88" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="V88" s="0" t="s">
+      <c r="W88" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="W88" s="0" t="s">
-        <v>774</v>
       </c>
       <c r="X88" s="0" t="n">
         <v>1</v>
@@ -9958,24 +9958,24 @@
         <v>5</v>
       </c>
       <c r="AD88" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>777</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>778</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>209</v>
@@ -9990,7 +9990,7 @@
         <v>142</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>205</v>
@@ -10014,10 +10014,10 @@
         <v>165</v>
       </c>
       <c r="T89" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="V89" s="0" t="s">
         <v>781</v>
-      </c>
-      <c r="V89" s="0" t="s">
-        <v>782</v>
       </c>
       <c r="X89" s="0" t="n">
         <v>1</v>
@@ -10029,18 +10029,18 @@
         <v>5</v>
       </c>
       <c r="AD89" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>785</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>786</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>82</v>
@@ -10061,10 +10061,10 @@
         <v>38</v>
       </c>
       <c r="K90" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="L90" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="N90" s="0" t="s">
         <v>104</v>
@@ -10076,13 +10076,13 @@
         <v>61</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>43</v>
       </c>
       <c r="T90" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>519</v>
@@ -10091,30 +10091,30 @@
         <v>1</v>
       </c>
       <c r="Z90" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA90" s="0" t="n">
         <v>5</v>
       </c>
       <c r="AD90" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>794</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>576</v>
@@ -10150,13 +10150,13 @@
         <v>76</v>
       </c>
       <c r="S91" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="T91" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="T91" s="0" t="s">
+      <c r="V91" s="0" t="s">
         <v>797</v>
-      </c>
-      <c r="V91" s="0" t="s">
-        <v>798</v>
       </c>
       <c r="X91" s="0" t="n">
         <v>1</v>
@@ -10168,24 +10168,24 @@
         <v>5</v>
       </c>
       <c r="AD91" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="C92" s="0" t="s">
         <v>801</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>802</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>94</v>
@@ -10209,19 +10209,19 @@
         <v>398</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R92" s="0" t="s">
         <v>43</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="X92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z92" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA92" s="0" t="n">
         <v>5</v>
@@ -10229,19 +10229,19 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>807</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>808</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>94</v>
@@ -10256,7 +10256,7 @@
         <v>38</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>39</v>
@@ -10277,7 +10277,7 @@
         <v>165</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>217</v>
@@ -10292,24 +10292,24 @@
         <v>5</v>
       </c>
       <c r="AD93" s="0" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>814</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>815</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>156</v>
@@ -10350,19 +10350,19 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>818</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>819</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>270</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>95</v>
@@ -10389,30 +10389,30 @@
         <v>1</v>
       </c>
       <c r="Z95" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD95" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="AA95" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD95" s="0" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>824</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>825</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>94</v>
@@ -10454,27 +10454,27 @@
         <v>5</v>
       </c>
       <c r="AD96" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>829</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>830</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>444</v>
       </c>
       <c r="E97" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="F97" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>832</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>95</v>
@@ -10495,7 +10495,7 @@
         <v>216</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R97" s="0" t="s">
         <v>43</v>
@@ -10513,24 +10513,24 @@
         <v>5</v>
       </c>
       <c r="AD97" s="0" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>836</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>837</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>141</v>
@@ -10563,10 +10563,10 @@
         <v>76</v>
       </c>
       <c r="S98" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="W98" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="W98" s="0" t="s">
-        <v>840</v>
       </c>
       <c r="X98" s="0" t="n">
         <v>1</v>
@@ -10578,24 +10578,24 @@
         <v>5</v>
       </c>
       <c r="AD98" s="0" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>844</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>541</v>
@@ -10610,13 +10610,13 @@
         <v>142</v>
       </c>
       <c r="K99" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="L99" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="L99" s="0" t="s">
-        <v>847</v>
-      </c>
       <c r="M99" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N99" s="0" t="s">
         <v>39</v>
@@ -10634,13 +10634,13 @@
         <v>62</v>
       </c>
       <c r="S99" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="T99" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="T99" s="0" t="s">
+      <c r="W99" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="W99" s="0" t="s">
-        <v>850</v>
       </c>
       <c r="X99" s="0" t="n">
         <v>1</v>
@@ -10652,24 +10652,24 @@
         <v>5</v>
       </c>
       <c r="AD99" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>853</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>854</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>270</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>94</v>
@@ -10684,10 +10684,10 @@
         <v>38</v>
       </c>
       <c r="K100" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="L100" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>857</v>
       </c>
       <c r="N100" s="0" t="s">
         <v>104</v>
@@ -10705,7 +10705,7 @@
         <v>43</v>
       </c>
       <c r="U100" s="0" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>570</v>
@@ -10717,27 +10717,27 @@
         <v>5</v>
       </c>
       <c r="AD100" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>862</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>172</v>
       </c>
       <c r="E101" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>864</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>95</v>
@@ -10773,7 +10773,7 @@
         <v>118</v>
       </c>
       <c r="T101" s="0" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="X101" s="0" t="n">
         <v>1</v>
@@ -10785,24 +10785,24 @@
         <v>5</v>
       </c>
       <c r="AD101" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>868</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>869</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>83</v>
@@ -10817,7 +10817,7 @@
         <v>38</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N102" s="0" t="s">
         <v>39</v>
@@ -10841,24 +10841,24 @@
         <v>5</v>
       </c>
       <c r="AD102" s="0" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>873</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>874</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>94</v>
@@ -10876,7 +10876,7 @@
         <v>116</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N103" s="0" t="s">
         <v>39</v>
@@ -10891,7 +10891,7 @@
         <v>42</v>
       </c>
       <c r="R103" s="0" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="X103" s="0" t="n">
         <v>1</v>
@@ -10903,24 +10903,24 @@
         <v>5</v>
       </c>
       <c r="AD103" s="0" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>880</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>881</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>156</v>
@@ -10935,10 +10935,10 @@
         <v>57</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N104" s="0" t="s">
         <v>60</v>
@@ -10956,7 +10956,7 @@
         <v>89</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V104" s="0" t="s">
         <v>190</v>
@@ -10971,27 +10971,27 @@
         <v>5</v>
       </c>
       <c r="AD104" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>887</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>888</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E105" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>889</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>890</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>55</v>
@@ -11003,7 +11003,7 @@
         <v>142</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="N105" s="0" t="s">
         <v>39</v>
@@ -11033,27 +11033,27 @@
         <v>5</v>
       </c>
       <c r="AD105" s="0" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>894</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>895</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E106" s="0" t="s">
+        <v>895</v>
+      </c>
+      <c r="F106" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>897</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>55</v>
@@ -11065,7 +11065,7 @@
         <v>142</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N106" s="0" t="s">
         <v>88</v>
@@ -11083,7 +11083,7 @@
         <v>76</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="X106" s="0" t="n">
         <v>1</v>
@@ -11095,24 +11095,24 @@
         <v>5</v>
       </c>
       <c r="AD106" s="0" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>903</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>94</v>
@@ -11127,7 +11127,7 @@
         <v>142</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>88</v>
@@ -11139,16 +11139,16 @@
         <v>398</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R107" s="0" t="s">
         <v>76</v>
       </c>
       <c r="U107" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="V107" s="0" t="s">
         <v>906</v>
-      </c>
-      <c r="V107" s="0" t="s">
-        <v>907</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>177</v>
@@ -11163,7 +11163,7 @@
         <v>5</v>
       </c>
       <c r="AD107" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11171,28 +11171,28 @@
         <v>189</v>
       </c>
       <c r="B108" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>909</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>910</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E108" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="F108" s="0" t="s">
         <v>911</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>912</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>201</v>
       </c>
       <c r="H108" s="0" t="s">
+        <v>912</v>
+      </c>
+      <c r="I108" s="0" t="s">
         <v>913</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>914</v>
       </c>
       <c r="K108" s="0" t="s">
         <v>116</v>
@@ -11201,13 +11201,13 @@
         <v>189</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>88</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P108" s="0" t="s">
         <v>61</v>
@@ -11219,42 +11219,42 @@
         <v>132</v>
       </c>
       <c r="S108" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="V108" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="V108" s="0" t="s">
+      <c r="W108" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="W108" s="0" t="s">
+      <c r="X108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD108" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="X108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA108" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD108" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>922</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>923</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>556</v>
@@ -11269,13 +11269,13 @@
         <v>38</v>
       </c>
       <c r="K109" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="L109" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="L109" s="0" t="s">
+      <c r="M109" s="0" t="s">
         <v>926</v>
-      </c>
-      <c r="M109" s="0" t="s">
-        <v>927</v>
       </c>
       <c r="N109" s="0" t="s">
         <v>60</v>
@@ -11293,42 +11293,42 @@
         <v>62</v>
       </c>
       <c r="S109" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="T109" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="W109" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="T109" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="W109" s="0" t="s">
+      <c r="X109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="X109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="0" t="s">
+      <c r="AA109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD109" s="0" t="s">
         <v>930</v>
-      </c>
-      <c r="AA109" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD109" s="0" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>933</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>934</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>94</v>
@@ -11343,7 +11343,7 @@
         <v>54</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N110" s="0" t="s">
         <v>39</v>
@@ -11372,13 +11372,13 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>938</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>939</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>270</v>
@@ -11420,7 +11420,7 @@
         <v>5</v>
       </c>
       <c r="AD111" s="0" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11428,16 +11428,16 @@
         <v>693</v>
       </c>
       <c r="B112" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>941</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>942</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>209</v>
@@ -11455,10 +11455,10 @@
         <v>282</v>
       </c>
       <c r="L112" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="M112" s="0" t="s">
         <v>944</v>
-      </c>
-      <c r="M112" s="0" t="s">
-        <v>945</v>
       </c>
       <c r="N112" s="0" t="s">
         <v>39</v>
@@ -11482,7 +11482,7 @@
         <v>686</v>
       </c>
       <c r="W112" s="0" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="X112" s="0" t="n">
         <v>1</v>
@@ -11494,24 +11494,24 @@
         <v>5</v>
       </c>
       <c r="AD112" s="0" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>950</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>72</v>
@@ -11526,10 +11526,10 @@
         <v>142</v>
       </c>
       <c r="K113" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="L113" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>953</v>
       </c>
       <c r="N113" s="0" t="s">
         <v>88</v>
@@ -11547,39 +11547,39 @@
         <v>76</v>
       </c>
       <c r="S113" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="W113" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="W113" s="0" t="s">
+      <c r="X113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="X113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="0" t="s">
+      <c r="AA113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD113" s="0" t="s">
         <v>956</v>
-      </c>
-      <c r="AA113" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD113" s="0" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>959</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>960</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>172</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>576</v>
@@ -11612,24 +11612,24 @@
         <v>1</v>
       </c>
       <c r="Z114" s="0" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>963</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>964</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>965</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>95</v>
@@ -11665,24 +11665,24 @@
         <v>5</v>
       </c>
       <c r="AD115" s="0" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>967</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>968</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>969</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>94</v>
@@ -11712,13 +11712,13 @@
         <v>43</v>
       </c>
       <c r="U116" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="V116" s="0" t="s">
         <v>971</v>
       </c>
-      <c r="V116" s="0" t="s">
+      <c r="W116" s="0" t="s">
         <v>972</v>
-      </c>
-      <c r="W116" s="0" t="s">
-        <v>973</v>
       </c>
       <c r="X116" s="0" t="n">
         <v>1</v>
@@ -11730,24 +11730,24 @@
         <v>5</v>
       </c>
       <c r="AD116" s="0" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="C117" s="0" t="s">
         <v>976</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>977</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>444</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>576</v>
@@ -11786,24 +11786,24 @@
         <v>5</v>
       </c>
       <c r="AD117" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="0" t="s">
         <v>981</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>982</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>83</v>
@@ -11833,27 +11833,27 @@
         <v>1</v>
       </c>
       <c r="AD118" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="C119" s="0" t="s">
         <v>985</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>986</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>127</v>
@@ -11865,7 +11865,7 @@
         <v>116</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N119" s="0" t="s">
         <v>104</v>
@@ -11885,19 +11885,19 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="C120" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>991</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>270</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>95</v>
@@ -11936,24 +11936,24 @@
         <v>5</v>
       </c>
       <c r="AD120" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C121" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>995</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>94</v>
@@ -11968,7 +11968,7 @@
         <v>38</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N121" s="0" t="s">
         <v>104</v>
@@ -11986,39 +11986,39 @@
         <v>43</v>
       </c>
       <c r="V121" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="W121" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="W121" s="0" t="s">
+      <c r="X121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="X121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="0" t="s">
+      <c r="AA121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD121" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="AA121" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD121" s="0" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="C122" s="0" t="s">
         <v>1002</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>1003</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>541</v>
@@ -12033,13 +12033,13 @@
         <v>38</v>
       </c>
       <c r="K122" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L122" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="L122" s="0" t="s">
+      <c r="M122" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>1006</v>
       </c>
       <c r="N122" s="0" t="s">
         <v>39</v>
@@ -12060,39 +12060,39 @@
         <v>439</v>
       </c>
       <c r="T122" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W122" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="W122" s="0" t="s">
+      <c r="X122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="AA122" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD122" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="X122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z122" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="AA122" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD122" s="0" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="0" t="s">
         <v>1011</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>1012</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>83</v>
@@ -12121,19 +12121,19 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="C124" s="0" t="s">
         <v>1015</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>1016</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>156</v>
@@ -12145,16 +12145,16 @@
         <v>249</v>
       </c>
       <c r="I124" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K124" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="K124" s="0" t="s">
+      <c r="M124" s="0" t="s">
         <v>1019</v>
       </c>
-      <c r="M124" s="0" t="s">
+      <c r="N124" s="0" t="s">
         <v>1020</v>
-      </c>
-      <c r="N124" s="0" t="s">
-        <v>1021</v>
       </c>
       <c r="O124" s="0" t="s">
         <v>202</v>
@@ -12172,10 +12172,10 @@
         <v>400</v>
       </c>
       <c r="V124" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W124" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="W124" s="0" t="s">
-        <v>1023</v>
       </c>
       <c r="X124" s="0" t="n">
         <v>1</v>
@@ -12187,27 +12187,27 @@
         <v>5</v>
       </c>
       <c r="AD124" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="C125" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>1027</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>127</v>
@@ -12240,24 +12240,24 @@
         <v>5</v>
       </c>
       <c r="AD125" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="C126" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>1032</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>94</v>
@@ -12266,7 +12266,7 @@
         <v>115</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>38</v>
@@ -12275,10 +12275,10 @@
         <v>116</v>
       </c>
       <c r="L126" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M126" s="0" t="s">
         <v>1035</v>
-      </c>
-      <c r="M126" s="0" t="s">
-        <v>1036</v>
       </c>
       <c r="N126" s="0" t="s">
         <v>104</v>
@@ -12290,16 +12290,16 @@
         <v>61</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>275</v>
       </c>
       <c r="T126" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="V126" s="0" t="s">
         <v>1038</v>
-      </c>
-      <c r="V126" s="0" t="s">
-        <v>1039</v>
       </c>
       <c r="X126" s="0" t="n">
         <v>1</v>
@@ -12311,18 +12311,18 @@
         <v>5</v>
       </c>
       <c r="AB126" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="C127" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>1043</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>82</v>
@@ -12373,24 +12373,24 @@
         <v>5</v>
       </c>
       <c r="AD127" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="C128" s="0" t="s">
         <v>1046</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>1047</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>94</v>
@@ -12420,7 +12420,7 @@
         <v>106</v>
       </c>
       <c r="T128" s="0" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="W128" s="0" t="s">
         <v>327</v>
@@ -12432,7 +12432,7 @@
         <v>5</v>
       </c>
       <c r="AD128" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12566,37 +12566,37 @@
         <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>1051</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>1052</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>1053</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>1057</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>1060</v>
@@ -12661,13 +12661,13 @@
         <v>1069</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>1071</v>
@@ -12729,13 +12729,13 @@
         <v>1077</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>76</v>
@@ -12773,7 +12773,7 @@
         <v>1082</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>86</v>
@@ -12785,13 +12785,13 @@
         <v>1083</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>1084</v>
@@ -12832,19 +12832,19 @@
         <v>1082</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>1088</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>1060</v>
@@ -12885,25 +12885,25 @@
         <v>1086</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>1092</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>1093</v>
@@ -12956,7 +12956,7 @@
         <v>1082</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>116</v>
@@ -12965,13 +12965,13 @@
         <v>1083</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>1099</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>1071</v>
@@ -13012,7 +13012,7 @@
         <v>126</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>1103</v>
@@ -13033,7 +13033,7 @@
         <v>1069</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>1092</v>
@@ -13083,7 +13083,7 @@
         <v>1108</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>1082</v>
@@ -13104,13 +13104,13 @@
         <v>1083</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>1088</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>76</v>
@@ -13163,13 +13163,13 @@
         <v>1114</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>59</v>
@@ -13178,13 +13178,13 @@
         <v>1069</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>1060</v>
@@ -13228,7 +13228,7 @@
         <v>1075</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>1066</v>
@@ -13243,13 +13243,13 @@
         <v>1077</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>76</v>
@@ -13308,7 +13308,7 @@
         <v>1083</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>1118</v>
@@ -13385,7 +13385,7 @@
         <v>1125</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>76</v>
@@ -13450,7 +13450,7 @@
         <v>1070</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>76</v>
@@ -13491,7 +13491,7 @@
         <v>1131</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>1066</v>
@@ -13506,13 +13506,13 @@
         <v>1077</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R16" s="0" t="s">
         <v>132</v>
@@ -13538,7 +13538,7 @@
         <v>1132</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>215</v>
@@ -13559,7 +13559,7 @@
         <v>161</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>1129</v>
@@ -13568,7 +13568,7 @@
         <v>1133</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R17" s="0" t="s">
         <v>76</v>
@@ -13606,16 +13606,16 @@
         <v>222</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>1053</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>1054</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>1066</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>223</v>
@@ -13624,16 +13624,16 @@
         <v>224</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P18" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R18" s="0" t="s">
         <v>76</v>
@@ -13677,13 +13677,13 @@
         <v>1114</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>1104</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>233</v>
@@ -13692,13 +13692,13 @@
         <v>1091</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R19" s="0" t="s">
         <v>1060</v>
@@ -13757,13 +13757,13 @@
         <v>1083</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R20" s="0" t="s">
         <v>76</v>
@@ -13810,7 +13810,7 @@
         <v>1114</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>1139</v>
@@ -13831,13 +13831,13 @@
         <v>1069</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>76</v>
@@ -13881,10 +13881,10 @@
         <v>259</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>1053</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>1054</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>1066</v>
@@ -13902,13 +13902,13 @@
         <v>1077</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R22" s="0" t="s">
         <v>76</v>
@@ -13955,7 +13955,7 @@
         <v>1080</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>1144</v>
@@ -13999,7 +13999,7 @@
         <v>1146</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>280</v>
@@ -14026,13 +14026,13 @@
         <v>1083</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P24" s="0" t="s">
         <v>1088</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R24" s="0" t="s">
         <v>76</v>
@@ -14094,13 +14094,13 @@
         <v>1091</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P25" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R25" s="0" t="s">
         <v>1071</v>
@@ -14147,19 +14147,19 @@
         <v>1147</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P26" s="0" t="s">
         <v>1088</v>
@@ -14221,13 +14221,13 @@
         <v>1069</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R27" s="0" t="s">
         <v>76</v>
@@ -14262,7 +14262,7 @@
         <v>1155</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>313</v>
@@ -14277,7 +14277,7 @@
         <v>1082</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>59</v>
@@ -14286,7 +14286,7 @@
         <v>1091</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>1092</v>
@@ -14339,13 +14339,13 @@
         <v>1108</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>1066</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>324</v>
@@ -14357,13 +14357,13 @@
         <v>1069</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R29" s="0" t="s">
         <v>76</v>
@@ -14422,13 +14422,13 @@
         <v>273</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R30" s="0" t="s">
         <v>76</v>
@@ -14472,7 +14472,7 @@
         <v>1075</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>1066</v>
@@ -14487,13 +14487,13 @@
         <v>1077</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R31" s="0" t="s">
         <v>1060</v>
@@ -14555,13 +14555,13 @@
         <v>1083</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R32" s="0" t="s">
         <v>76</v>
@@ -14599,7 +14599,7 @@
         <v>1163</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>140</v>
@@ -14611,7 +14611,7 @@
         <v>1098</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>1109</v>
@@ -14732,19 +14732,19 @@
         <v>1120</v>
       </c>
       <c r="G35" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P35" s="0" t="s">
         <v>1167</v>
@@ -14779,7 +14779,7 @@
         <v>1168</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>380</v>
@@ -14788,10 +14788,10 @@
         <v>1086</v>
       </c>
       <c r="G36" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>1055</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>381</v>
@@ -14856,13 +14856,13 @@
         <v>1069</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P37" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R37" s="0" t="s">
         <v>76</v>
@@ -14906,7 +14906,7 @@
         <v>1131</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>1066</v>
@@ -14921,7 +14921,7 @@
         <v>1083</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>1174</v>
@@ -14977,25 +14977,25 @@
         <v>1086</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="I39" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="N39" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N39" s="0" t="s">
+      <c r="O39" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O39" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P39" s="0" t="s">
         <v>1092</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R39" s="0" t="s">
         <v>1060</v>
@@ -15030,7 +15030,7 @@
         <v>1178</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>417</v>
@@ -15039,7 +15039,7 @@
         <v>1108</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>1082</v>
@@ -15066,7 +15066,7 @@
         <v>1162</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R40" s="0" t="s">
         <v>76</v>
@@ -15113,7 +15113,7 @@
         <v>1114</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>1144</v>
@@ -15163,7 +15163,7 @@
         <v>1182</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>431</v>
@@ -15190,13 +15190,13 @@
         <v>1083</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P42" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R42" s="0" t="s">
         <v>76</v>
@@ -15228,7 +15228,7 @@
         <v>1183</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>436</v>
@@ -15243,7 +15243,7 @@
         <v>1082</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>437</v>
@@ -15258,13 +15258,13 @@
         <v>1091</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P43" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R43" s="0" t="s">
         <v>1060</v>
@@ -15305,10 +15305,10 @@
         <v>1186</v>
       </c>
       <c r="H44" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>68</v>
@@ -15317,10 +15317,10 @@
         <v>447</v>
       </c>
       <c r="N44" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O44" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>1133</v>
@@ -15358,7 +15358,7 @@
         <v>1187</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>454</v>
@@ -15370,7 +15370,7 @@
         <v>1103</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>1123</v>
@@ -15379,7 +15379,7 @@
         <v>1091</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P45" s="0" t="s">
         <v>1099</v>
@@ -15432,13 +15432,13 @@
         <v>1091</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P46" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R46" s="0" t="s">
         <v>76</v>
@@ -15473,7 +15473,7 @@
         <v>1192</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>470</v>
@@ -15482,7 +15482,7 @@
         <v>1108</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>1082</v>
@@ -15500,13 +15500,13 @@
         <v>1069</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P47" s="0" t="s">
         <v>1092</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R47" s="0" t="s">
         <v>76</v>
@@ -15541,7 +15541,7 @@
         <v>1197</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>140</v>
@@ -15689,13 +15689,13 @@
         <v>1083</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R50" s="0" t="s">
         <v>1071</v>
@@ -15739,19 +15739,19 @@
         <v>1108</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P51" s="0" t="s">
         <v>1092</v>
@@ -15786,7 +15786,7 @@
         <v>1206</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>140</v>
@@ -15810,16 +15810,16 @@
         <v>116</v>
       </c>
       <c r="N52" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O52" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P52" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R52" s="0" t="s">
         <v>76</v>
@@ -15869,7 +15869,7 @@
         <v>1087</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>1064</v>
@@ -15881,7 +15881,7 @@
         <v>1069</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P53" s="0" t="s">
         <v>1070</v>
@@ -15943,13 +15943,13 @@
         <v>1091</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>1214</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R54" s="0" t="s">
         <v>1060</v>
@@ -15987,7 +15987,7 @@
         <v>340</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>1128</v>
@@ -15996,22 +15996,22 @@
         <v>1076</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>341</v>
       </c>
       <c r="N55" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O55" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P55" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R55" s="0" t="s">
         <v>1060</v>
@@ -16064,7 +16064,7 @@
         <v>1104</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>1091</v>
@@ -16123,13 +16123,13 @@
         <v>1082</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P57" s="0" t="s">
         <v>1220</v>
@@ -16170,7 +16170,7 @@
         <v>1222</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>555</v>
@@ -16194,7 +16194,7 @@
         <v>1069</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P58" s="0" t="s">
         <v>1204</v>
@@ -16250,13 +16250,13 @@
         <v>1082</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P59" s="0" t="s">
         <v>1162</v>
@@ -16315,13 +16315,13 @@
         <v>1083</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P60" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R60" s="0" t="s">
         <v>1060</v>
@@ -16362,7 +16362,7 @@
         <v>1230</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>126</v>
@@ -16383,16 +16383,16 @@
         <v>116</v>
       </c>
       <c r="N61" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>1092</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R61" s="0" t="s">
         <v>76</v>
@@ -16436,19 +16436,19 @@
         <v>1114</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P62" s="0" t="s">
         <v>1204</v>
@@ -16483,7 +16483,7 @@
         <v>1232</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>598</v>
@@ -16492,13 +16492,13 @@
         <v>1108</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>116</v>
@@ -16507,16 +16507,16 @@
         <v>599</v>
       </c>
       <c r="N63" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O63" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P63" s="0" t="s">
         <v>1092</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R63" s="0" t="s">
         <v>76</v>
@@ -16578,10 +16578,10 @@
         <v>1129</v>
       </c>
       <c r="P64" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q64" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="Q64" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="R64" s="0" t="s">
         <v>1060</v>
@@ -16663,7 +16663,7 @@
         <v>1237</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>620</v>
@@ -16672,7 +16672,7 @@
         <v>1238</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>1104</v>
@@ -16728,16 +16728,16 @@
         <v>1087</v>
       </c>
       <c r="H67" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="N67" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P67" s="0" t="s">
         <v>1174</v>
@@ -16778,7 +16778,7 @@
         <v>1241</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>634</v>
@@ -16799,7 +16799,7 @@
         <v>1091</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P68" s="0" t="s">
         <v>1133</v>
@@ -16846,19 +16846,19 @@
         <v>1131</v>
       </c>
       <c r="G69" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="I69" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="N69" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N69" s="0" t="s">
+      <c r="O69" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P69" s="0" t="s">
         <v>1099</v>
@@ -16908,7 +16908,7 @@
         <v>1144</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>1091</v>
@@ -16917,7 +16917,7 @@
         <v>1145</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R70" s="0" t="s">
         <v>1060</v>
@@ -16955,7 +16955,7 @@
         <v>1075</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>1236</v>
@@ -16964,10 +16964,10 @@
         <v>1123</v>
       </c>
       <c r="N71" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O71" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P71" s="0" t="s">
         <v>1092</v>
@@ -17017,13 +17017,13 @@
         <v>1122</v>
       </c>
       <c r="I72" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N72" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N72" s="0" t="s">
+      <c r="O72" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P72" s="0" t="s">
         <v>1070</v>
@@ -17079,7 +17079,7 @@
         <v>669</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>1253</v>
@@ -17088,7 +17088,7 @@
         <v>1099</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R73" s="0" t="s">
         <v>76</v>
@@ -17144,13 +17144,13 @@
         <v>1069</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P74" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R74" s="0" t="s">
         <v>1060</v>
@@ -17244,7 +17244,7 @@
         <v>1257</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>689</v>
@@ -17271,16 +17271,16 @@
         <v>691</v>
       </c>
       <c r="N76" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O76" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O76" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P76" s="0" t="s">
         <v>1258</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R76" s="0" t="s">
         <v>1060</v>
@@ -17315,16 +17315,16 @@
         <v>1259</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>332</v>
       </c>
       <c r="F77" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>1053</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>1054</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>1066</v>
@@ -17339,13 +17339,13 @@
         <v>1077</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P77" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R77" s="0" t="s">
         <v>76</v>
@@ -17392,19 +17392,19 @@
         <v>1087</v>
       </c>
       <c r="H78" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>144</v>
       </c>
       <c r="N78" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O78" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P78" s="0" t="s">
         <v>1088</v>
@@ -17442,7 +17442,7 @@
         <v>1261</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>712</v>
@@ -17451,19 +17451,19 @@
         <v>1262</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P79" s="0" t="s">
         <v>1092</v>
@@ -17516,16 +17516,16 @@
         <v>1149</v>
       </c>
       <c r="N80" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O80" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P80" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R80" s="0" t="s">
         <v>1060</v>
@@ -17543,15 +17543,15 @@
         <v>5</v>
       </c>
       <c r="AD80" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>723</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>724</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>1264</v>
@@ -17560,7 +17560,7 @@
         <v>1143</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>1080</v>
@@ -17599,24 +17599,24 @@
         <v>5</v>
       </c>
       <c r="AD81" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>728</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>729</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>1265</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>1266</v>
@@ -17625,19 +17625,19 @@
         <v>1103</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>1123</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P82" s="0" t="s">
         <v>1099</v>
@@ -17652,27 +17652,27 @@
         <v>1</v>
       </c>
       <c r="Z82" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD82" s="0" t="s">
         <v>734</v>
-      </c>
-      <c r="AA82" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD82" s="0" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>737</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>1267</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>313</v>
@@ -17681,13 +17681,13 @@
         <v>1156</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>324</v>
@@ -17696,22 +17696,22 @@
         <v>1091</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P83" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R83" s="0" t="s">
         <v>132</v>
       </c>
       <c r="S83" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="V83" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="V83" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="X83" s="0" t="n">
         <v>1</v>
@@ -17723,15 +17723,15 @@
         <v>5</v>
       </c>
       <c r="AD83" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>742</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>743</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>1268</v>
@@ -17740,7 +17740,7 @@
         <v>1079</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F84" s="0" t="s">
         <v>1075</v>
@@ -17755,28 +17755,28 @@
         <v>1109</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>1124</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P84" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R84" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S84" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="W84" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="W84" s="0" t="s">
-        <v>749</v>
       </c>
       <c r="X84" s="0" t="n">
         <v>1</v>
@@ -17788,15 +17788,15 @@
         <v>5</v>
       </c>
       <c r="AD84" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>752</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>1269</v>
@@ -17805,7 +17805,7 @@
         <v>1200</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>1218</v>
@@ -17817,7 +17817,7 @@
         <v>1104</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N85" s="0" t="s">
         <v>1091</v>
@@ -17835,7 +17835,7 @@
         <v>1060</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X85" s="0" t="n">
         <v>1</v>
@@ -17847,42 +17847,42 @@
         <v>5</v>
       </c>
       <c r="AD85" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>757</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>758</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>1270</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>1108</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N86" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P86" s="0" t="s">
         <v>1092</v>
@@ -17900,27 +17900,27 @@
         <v>1</v>
       </c>
       <c r="Z86" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD86" s="0" t="s">
         <v>761</v>
-      </c>
-      <c r="AA86" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD86" s="0" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>764</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>1271</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>140</v>
@@ -17950,7 +17950,7 @@
         <v>1118</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R87" s="0" t="s">
         <v>76</v>
@@ -17968,7 +17968,7 @@
         <v>5</v>
       </c>
       <c r="AD87" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17976,7 +17976,7 @@
         <v>116</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>1272</v>
@@ -17985,13 +17985,13 @@
         <v>1079</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>1075</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>1066</v>
@@ -18006,28 +18006,28 @@
         <v>1077</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P88" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R88" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T88" s="0" t="s">
         <v>1273</v>
       </c>
       <c r="V88" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="W88" s="0" t="s">
         <v>773</v>
-      </c>
-      <c r="W88" s="0" t="s">
-        <v>774</v>
       </c>
       <c r="X88" s="0" t="n">
         <v>1</v>
@@ -18039,15 +18039,15 @@
         <v>5</v>
       </c>
       <c r="AD88" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>1274</v>
@@ -18056,13 +18056,13 @@
         <v>1063</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F89" s="0" t="s">
         <v>1131</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>1066</v>
@@ -18080,7 +18080,7 @@
         <v>1083</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P89" s="0" t="s">
         <v>1070</v>
@@ -18095,7 +18095,7 @@
         <v>1276</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="X89" s="0" t="n">
         <v>1</v>
@@ -18107,15 +18107,15 @@
         <v>5</v>
       </c>
       <c r="AD89" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>784</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>1277</v>
@@ -18136,25 +18136,25 @@
         <v>1082</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K90" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="L90" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="N90" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P90" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R90" s="0" t="s">
         <v>1060</v>
@@ -18169,21 +18169,21 @@
         <v>1</v>
       </c>
       <c r="Z90" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA90" s="0" t="n">
         <v>5</v>
       </c>
       <c r="AD90" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>792</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>793</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>1279</v>
@@ -18192,7 +18192,7 @@
         <v>1063</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F91" s="0" t="s">
         <v>576</v>
@@ -18216,25 +18216,25 @@
         <v>1069</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P91" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R91" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="T91" s="0" t="s">
         <v>1280</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="X91" s="0" t="n">
         <v>1</v>
@@ -18246,15 +18246,15 @@
         <v>5</v>
       </c>
       <c r="AD91" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>800</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>801</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>1281</v>
@@ -18263,43 +18263,43 @@
         <v>1074</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="G92" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="I92" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="N92" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P92" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R92" s="0" t="s">
         <v>1060</v>
       </c>
       <c r="W92" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="X92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Z92" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA92" s="0" t="n">
         <v>5</v>
@@ -18307,10 +18307,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>806</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>807</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>1282</v>
@@ -18319,7 +18319,7 @@
         <v>1079</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F93" s="0" t="s">
         <v>1086</v>
@@ -18331,22 +18331,22 @@
         <v>1082</v>
       </c>
       <c r="I93" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="N93" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="K93" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="N93" s="0" t="s">
+      <c r="O93" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O93" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P93" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R93" s="0" t="s">
         <v>132</v>
@@ -18355,7 +18355,7 @@
         <v>165</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>217</v>
@@ -18375,31 +18375,31 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>813</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>814</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>1284</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>1114</v>
       </c>
       <c r="G94" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H94" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="I94" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="N94" s="0" t="s">
         <v>1091</v>
@@ -18428,10 +18428,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>817</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>818</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>1285</v>
@@ -18440,7 +18440,7 @@
         <v>1143</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>1087</v>
@@ -18467,21 +18467,21 @@
         <v>1</v>
       </c>
       <c r="Z95" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD95" s="0" t="s">
         <v>821</v>
-      </c>
-      <c r="AA95" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD95" s="0" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>824</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>1286</v>
@@ -18490,19 +18490,19 @@
         <v>1079</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F96" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K96" s="0" t="s">
         <v>557</v>
@@ -18511,7 +18511,7 @@
         <v>1091</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P96" s="0" t="s">
         <v>1133</v>
@@ -18532,15 +18532,15 @@
         <v>5</v>
       </c>
       <c r="AD96" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>1287</v>
@@ -18549,7 +18549,7 @@
         <v>1185</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F97" s="0" t="s">
         <v>1288</v>
@@ -18561,19 +18561,19 @@
         <v>1082</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N97" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P97" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="R97" s="0" t="s">
         <v>1060</v>
@@ -18591,24 +18591,24 @@
         <v>5</v>
       </c>
       <c r="AD97" s="0" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>836</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>1289</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>1108</v>
@@ -18626,25 +18626,25 @@
         <v>59</v>
       </c>
       <c r="N98" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O98" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O98" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P98" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R98" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S98" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="W98" s="0" t="s">
         <v>839</v>
-      </c>
-      <c r="W98" s="0" t="s">
-        <v>840</v>
       </c>
       <c r="X98" s="0" t="n">
         <v>1</v>
@@ -18656,15 +18656,15 @@
         <v>5</v>
       </c>
       <c r="AD98" s="0" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>843</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>1290</v>
@@ -18673,13 +18673,13 @@
         <v>1079</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F99" s="0" t="s">
         <v>1218</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>1066</v>
@@ -18688,37 +18688,37 @@
         <v>1109</v>
       </c>
       <c r="K99" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="L99" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="L99" s="0" t="s">
-        <v>847</v>
-      </c>
       <c r="M99" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N99" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O99" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O99" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P99" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R99" s="0" t="s">
         <v>1071</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="T99" s="0" t="s">
         <v>1291</v>
       </c>
       <c r="W99" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="X99" s="0" t="n">
         <v>1</v>
@@ -18730,15 +18730,15 @@
         <v>5</v>
       </c>
       <c r="AD99" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>852</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>853</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>1292</v>
@@ -18747,7 +18747,7 @@
         <v>1143</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F100" s="0" t="s">
         <v>1086</v>
@@ -18756,25 +18756,25 @@
         <v>1087</v>
       </c>
       <c r="H100" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I100" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="I100" s="0" t="s">
-        <v>1056</v>
-      </c>
       <c r="K100" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="L100" s="0" t="s">
         <v>856</v>
-      </c>
-      <c r="L100" s="0" t="s">
-        <v>857</v>
       </c>
       <c r="N100" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O100" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P100" s="0" t="s">
         <v>1058</v>
-      </c>
-      <c r="P100" s="0" t="s">
-        <v>1059</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>567</v>
@@ -18795,15 +18795,15 @@
         <v>5</v>
       </c>
       <c r="AD100" s="0" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>860</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>861</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>1294</v>
@@ -18812,10 +18812,10 @@
         <v>1117</v>
       </c>
       <c r="E101" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>864</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>1087</v>
@@ -18836,13 +18836,13 @@
         <v>1083</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P101" s="0" t="s">
         <v>1099</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R101" s="0" t="s">
         <v>76</v>
@@ -18863,15 +18863,15 @@
         <v>5</v>
       </c>
       <c r="AD101" s="0" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>867</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>868</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>1296</v>
@@ -18880,7 +18880,7 @@
         <v>1074</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>1080</v>
@@ -18892,19 +18892,19 @@
         <v>1144</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>1297</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O102" s="0" t="s">
         <v>1145</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R102" s="0" t="s">
         <v>1060</v>
@@ -18919,15 +18919,15 @@
         <v>5</v>
       </c>
       <c r="AD102" s="0" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>872</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>873</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>1298</v>
@@ -18936,7 +18936,7 @@
         <v>1063</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>1086</v>
@@ -18954,19 +18954,19 @@
         <v>116</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N103" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O103" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O103" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P103" s="0" t="s">
         <v>1133</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R103" s="0" t="s">
         <v>1299</v>
@@ -18981,15 +18981,15 @@
         <v>5</v>
       </c>
       <c r="AD103" s="0" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>879</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>880</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>1300</v>
@@ -18998,13 +18998,13 @@
         <v>1063</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>1114</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>1139</v>
@@ -19013,10 +19013,10 @@
         <v>1067</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N104" s="0" t="s">
         <v>1069</v>
@@ -19028,13 +19028,13 @@
         <v>1070</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R104" s="0" t="s">
         <v>1084</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="V104" s="0" t="s">
         <v>190</v>
@@ -19049,15 +19049,15 @@
         <v>5</v>
       </c>
       <c r="AD104" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>886</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>887</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>1301</v>
@@ -19066,7 +19066,7 @@
         <v>1079</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F105" s="0" t="s">
         <v>1302</v>
@@ -19081,19 +19081,19 @@
         <v>1109</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="N105" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O105" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O105" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P105" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R105" s="0" t="s">
         <v>132</v>
@@ -19111,15 +19111,15 @@
         <v>5</v>
       </c>
       <c r="AD105" s="0" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>893</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>894</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>1303</v>
@@ -19128,7 +19128,7 @@
         <v>1079</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F106" s="0" t="s">
         <v>1304</v>
@@ -19149,19 +19149,19 @@
         <v>1083</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P106" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R106" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="X106" s="0" t="n">
         <v>1</v>
@@ -19173,15 +19173,15 @@
         <v>5</v>
       </c>
       <c r="AD106" s="0" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>901</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>902</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>1306</v>
@@ -19190,7 +19190,7 @@
         <v>1079</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>1086</v>
@@ -19205,19 +19205,19 @@
         <v>1109</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>1083</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P107" s="0" t="s">
         <v>1174</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="R107" s="0" t="s">
         <v>76</v>
@@ -19226,7 +19226,7 @@
         <v>1307</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>177</v>
@@ -19241,7 +19241,7 @@
         <v>5</v>
       </c>
       <c r="AD107" s="0" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19249,7 +19249,7 @@
         <v>189</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>1308</v>
@@ -19258,7 +19258,7 @@
         <v>1079</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>1309</v>
@@ -19279,7 +19279,7 @@
         <v>189</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>1083</v>
@@ -19291,48 +19291,48 @@
         <v>1070</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R108" s="0" t="s">
         <v>132</v>
       </c>
       <c r="S108" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="V108" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="V108" s="0" t="s">
+      <c r="W108" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="W108" s="0" t="s">
+      <c r="X108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA108" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD108" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="X108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="AA108" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD108" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>921</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>922</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>1313</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>1223</v>
@@ -19344,69 +19344,69 @@
         <v>1139</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K109" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="L109" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="L109" s="0" t="s">
+      <c r="M109" s="0" t="s">
         <v>926</v>
-      </c>
-      <c r="M109" s="0" t="s">
-        <v>927</v>
       </c>
       <c r="N109" s="0" t="s">
         <v>1069</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P109" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R109" s="0" t="s">
         <v>1071</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="T109" s="0" t="s">
         <v>1291</v>
       </c>
       <c r="W109" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="X109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="X109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="0" t="s">
+      <c r="AA109" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD109" s="0" t="s">
         <v>930</v>
-      </c>
-      <c r="AA109" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD109" s="0" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>932</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>933</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>1165</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>1086</v>
@@ -19424,10 +19424,10 @@
         <v>1314</v>
       </c>
       <c r="N110" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O110" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O110" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P110" s="0" t="s">
         <v>1088</v>
@@ -19450,10 +19450,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>937</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>938</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>1315</v>
@@ -19498,7 +19498,7 @@
         <v>5</v>
       </c>
       <c r="AD111" s="0" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19506,16 +19506,16 @@
         <v>693</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>1316</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F112" s="0" t="s">
         <v>1131</v>
@@ -19527,28 +19527,28 @@
         <v>1104</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K112" s="0" t="s">
         <v>282</v>
       </c>
       <c r="L112" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="M112" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="M112" s="0" t="s">
-        <v>945</v>
-      </c>
       <c r="N112" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O112" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O112" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P112" s="0" t="s">
         <v>1258</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R112" s="0" t="s">
         <v>76</v>
@@ -19560,7 +19560,7 @@
         <v>686</v>
       </c>
       <c r="W112" s="0" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="X112" s="0" t="n">
         <v>1</v>
@@ -19572,15 +19572,15 @@
         <v>5</v>
       </c>
       <c r="AD112" s="0" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>948</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>949</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>1317</v>
@@ -19589,13 +19589,13 @@
         <v>1079</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F113" s="0" t="s">
         <v>1075</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>1066</v>
@@ -19604,51 +19604,51 @@
         <v>1109</v>
       </c>
       <c r="K113" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="L113" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="L113" s="0" t="s">
-        <v>953</v>
       </c>
       <c r="N113" s="0" t="s">
         <v>1083</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P113" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R113" s="0" t="s">
         <v>76</v>
       </c>
       <c r="S113" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="W113" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="W113" s="0" t="s">
+      <c r="X113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="X113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="0" t="s">
+      <c r="AA113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD113" s="0" t="s">
         <v>956</v>
-      </c>
-      <c r="AA113" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD113" s="0" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>958</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>959</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>1318</v>
@@ -19657,7 +19657,7 @@
         <v>1117</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F114" s="0" t="s">
         <v>576</v>
@@ -19666,7 +19666,7 @@
         <v>1103</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N114" s="0" t="s">
         <v>1091</v>
@@ -19695,10 +19695,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>963</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>964</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>1320</v>
@@ -19707,7 +19707,7 @@
         <v>1074</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F115" s="0" t="s">
         <v>1087</v>
@@ -19743,15 +19743,15 @@
         <v>5</v>
       </c>
       <c r="AD115" s="0" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>967</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>968</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>1321</v>
@@ -19760,7 +19760,7 @@
         <v>1079</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F116" s="0" t="s">
         <v>1086</v>
@@ -19769,22 +19769,22 @@
         <v>1098</v>
       </c>
       <c r="H116" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I116" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>1056</v>
       </c>
       <c r="N116" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O116" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="P116" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="P116" s="0" t="s">
+      <c r="Q116" s="0" t="s">
         <v>1059</v>
-      </c>
-      <c r="Q116" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="R116" s="0" t="s">
         <v>1060</v>
@@ -19793,10 +19793,10 @@
         <v>1322</v>
       </c>
       <c r="V116" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="W116" s="0" t="s">
         <v>972</v>
-      </c>
-      <c r="W116" s="0" t="s">
-        <v>973</v>
       </c>
       <c r="X116" s="0" t="n">
         <v>1</v>
@@ -19808,15 +19808,15 @@
         <v>5</v>
       </c>
       <c r="AD116" s="0" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>976</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>1323</v>
@@ -19825,7 +19825,7 @@
         <v>1185</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>576</v>
@@ -19843,7 +19843,7 @@
         <v>1091</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P117" s="0" t="s">
         <v>1133</v>
@@ -19864,24 +19864,24 @@
         <v>5</v>
       </c>
       <c r="AD117" s="0" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>980</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>981</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>1324</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F118" s="0" t="s">
         <v>1080</v>
@@ -19890,13 +19890,13 @@
         <v>1098</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="N118" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P118" s="0" t="s">
         <v>1118</v>
@@ -19911,24 +19911,24 @@
         <v>1</v>
       </c>
       <c r="AD118" s="0" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>984</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>985</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>1325</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>1326</v>
@@ -19937,13 +19937,13 @@
         <v>1103</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K119" s="0" t="s">
         <v>116</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N119" s="0" t="s">
         <v>1091</v>
@@ -19963,10 +19963,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>989</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>990</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>1327</v>
@@ -19975,7 +19975,7 @@
         <v>1143</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F120" s="0" t="s">
         <v>1087</v>
@@ -19990,7 +19990,7 @@
         <v>1123</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O120" s="0" t="s">
         <v>1145</v>
@@ -20014,15 +20014,15 @@
         <v>5</v>
       </c>
       <c r="AD120" s="0" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>993</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>994</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>1328</v>
@@ -20031,7 +20031,7 @@
         <v>1079</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F121" s="0" t="s">
         <v>1086</v>
@@ -20040,54 +20040,54 @@
         <v>1087</v>
       </c>
       <c r="H121" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>1055</v>
       </c>
-      <c r="I121" s="0" t="s">
-        <v>1056</v>
-      </c>
       <c r="K121" s="0" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N121" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P121" s="0" t="s">
         <v>1162</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R121" s="0" t="s">
         <v>1060</v>
       </c>
       <c r="V121" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="W121" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="W121" s="0" t="s">
+      <c r="X121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="X121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="0" t="s">
+      <c r="AA121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD121" s="0" t="s">
         <v>999</v>
-      </c>
-      <c r="AA121" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD121" s="0" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>1002</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>1329</v>
@@ -20096,40 +20096,40 @@
         <v>1063</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F122" s="0" t="s">
         <v>1218</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>1139</v>
       </c>
       <c r="I122" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N122" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="K122" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L122" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M122" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="N122" s="0" t="s">
+      <c r="O122" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O122" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P122" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R122" s="0" t="s">
         <v>1071</v>
@@ -20141,45 +20141,45 @@
         <v>1330</v>
       </c>
       <c r="W122" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="AA122" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD122" s="0" t="s">
         <v>1008</v>
-      </c>
-      <c r="X122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z122" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="AA122" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD122" s="0" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>1010</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>1011</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>1331</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F123" s="0" t="s">
         <v>1080</v>
       </c>
       <c r="G123" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H123" s="0" t="s">
         <v>1054</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>1055</v>
       </c>
       <c r="N123" s="0" t="s">
         <v>1069</v>
@@ -20199,10 +20199,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>1014</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>1015</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>1332</v>
@@ -20211,7 +20211,7 @@
         <v>1063</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F124" s="0" t="s">
         <v>1114</v>
@@ -20226,10 +20226,10 @@
         <v>1333</v>
       </c>
       <c r="K124" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M124" s="0" t="s">
         <v>1019</v>
-      </c>
-      <c r="M124" s="0" t="s">
-        <v>1020</v>
       </c>
       <c r="N124" s="0" t="s">
         <v>1334</v>
@@ -20241,7 +20241,7 @@
         <v>1088</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>720</v>
+        <v>1059</v>
       </c>
       <c r="R124" s="0" t="s">
         <v>132</v>
@@ -20250,10 +20250,10 @@
         <v>400</v>
       </c>
       <c r="V124" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W124" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="W124" s="0" t="s">
-        <v>1023</v>
       </c>
       <c r="X124" s="0" t="n">
         <v>1</v>
@@ -20265,24 +20265,24 @@
         <v>5</v>
       </c>
       <c r="AD124" s="0" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>1025</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>1026</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>1335</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F125" s="0" t="s">
         <v>1304</v>
@@ -20318,15 +20318,15 @@
         <v>5</v>
       </c>
       <c r="AD125" s="0" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>1030</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>1031</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>1336</v>
@@ -20335,7 +20335,7 @@
         <v>1063</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F126" s="0" t="s">
         <v>1086</v>
@@ -20347,13 +20347,13 @@
         <v>1337</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K126" s="0" t="s">
         <v>116</v>
       </c>
       <c r="L126" s="0" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M126" s="0" t="s">
         <v>1338</v>
@@ -20362,13 +20362,13 @@
         <v>1091</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P126" s="0" t="s">
         <v>1070</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R126" s="0" t="s">
         <v>275</v>
@@ -20377,7 +20377,7 @@
         <v>1339</v>
       </c>
       <c r="V126" s="0" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="X126" s="0" t="n">
         <v>1</v>
@@ -20389,15 +20389,15 @@
         <v>5</v>
       </c>
       <c r="AB126" s="0" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>1041</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>1042</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>1340</v>
@@ -20418,13 +20418,13 @@
         <v>1082</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N127" s="0" t="s">
         <v>1091</v>
       </c>
       <c r="O127" s="0" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="P127" s="0" t="s">
         <v>1162</v>
@@ -20451,42 +20451,42 @@
         <v>5</v>
       </c>
       <c r="AD127" s="0" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>1045</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>1046</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>1341</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F128" s="0" t="s">
         <v>1086</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>1082</v>
       </c>
       <c r="I128" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N128" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="N128" s="0" t="s">
+      <c r="O128" s="0" t="s">
         <v>1057</v>
-      </c>
-      <c r="O128" s="0" t="s">
-        <v>1058</v>
       </c>
       <c r="P128" s="0" t="s">
         <v>1092</v>
@@ -20510,7 +20510,7 @@
         <v>5</v>
       </c>
       <c r="AD128" s="0" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
